--- a/files/불량구분기준.xlsx
+++ b/files/불량구분기준.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devs\partmaster\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48ED6553-59DC-4D06-B115-448D5029EDD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BE9A3B-7449-4056-8D78-00869C31729E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{0AF7942B-F01A-4BA6-804D-732FC792ECB7}"/>
   </bookViews>
@@ -16,19 +16,27 @@
     <sheet name="불량구분_1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">불량구분_1!$A$1:$E$2170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">불량구분_1!$A$1:$E$2366</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6478" uniqueCount="1821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7055" uniqueCount="1845">
   <si>
     <t>SP</t>
   </si>
@@ -5491,13 +5499,101 @@
   </si>
   <si>
     <t>FM</t>
+  </si>
+  <si>
+    <t>SUB품, 누락</t>
+  </si>
+  <si>
+    <t>SIDE BODY(PICK-UP)</t>
+  </si>
+  <si>
+    <t>DOOR-P/UP,WAGON</t>
+  </si>
+  <si>
+    <t>SUB품누락</t>
+  </si>
+  <si>
+    <t>긁힘</t>
+  </si>
+  <si>
+    <t>스크래치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브파트누락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바코드누락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHOPPING</t>
+  </si>
+  <si>
+    <t>HANDLING</t>
+  </si>
+  <si>
+    <t>핸들링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOLE막힘</t>
+  </si>
+  <si>
+    <t>혼입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과부족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미승인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미신고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과납, 잉여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라벨, 오부착, 식별표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사양, 불일치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5519,6 +5615,12 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF454545"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5558,7 +5660,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5566,6 +5668,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -5901,15 +6004,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0279FC3-69E1-49E2-B2F1-6A038C7B556B}">
-  <dimension ref="A1:E2170"/>
+  <dimension ref="A1:E2366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1677" sqref="A1677:XFD1701"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="22.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="32.875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="2"/>
@@ -42703,8 +42806,3307 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2171" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2171" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2171" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2171" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2171" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2172" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2172" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2172" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2172" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2172" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2173" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2173" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2173" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2173" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2173" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2174" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2174" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2174" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2174" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2174" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2175" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2175" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2175" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2175" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2175" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2176" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2176" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2176" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2176" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2176" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2177" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2177" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2177" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2177" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2177" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2178" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C2178" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2178" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2178" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2179" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2179" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2179" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2179" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2179" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2180" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2180" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2180" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2180" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2180" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2181" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2181" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2181" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2181" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2181" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2182" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2182" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2182" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2182" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2182" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2183" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2183" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2183" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2183" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2183" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2184" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2184" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2184" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2184" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2184" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2185" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2185" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2185" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2185" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2185" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2186" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2186" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2186" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2186" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2186" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2187" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2187" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2187" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2187" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2187" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2188" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2188" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2188" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2188" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2188" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2189" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2189" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2189" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2189" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2189" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2190" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2190" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2190" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2190" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2190" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2191" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2191" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2191" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2191" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2191" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2192" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2192" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C2192" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2192" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2192" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2193" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2193" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C2193" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2193" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2193" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2194" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2194" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2194" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2194" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2194" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2195" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2195" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2195" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2195" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2195" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2196" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2196" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2196" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2196" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2196" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2197" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2197" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2197" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2197" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2197" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2198" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2198" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2198" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2198" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2198" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2199" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2199" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2199" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2199" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2199" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2200" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2200" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2200" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2200" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2200" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2201" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2201" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="C2201" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2201" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2201" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2202" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2202" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2202" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2202" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2202" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2203" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2203" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2203" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2203" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2203" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2204" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2204" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C2204" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2204" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2204" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2205" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2205" s="2" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C2205" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2205" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2205" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2206" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2206" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2206" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2206" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2206" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2207" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2207" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C2207" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2207" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2207" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2208" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2208" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2208" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2208" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2208" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2209" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2209" s="2" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C2209" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2209" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2209" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2210" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2210" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2210" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2210" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2210" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2211" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2211" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2211" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2211" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2211" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2212" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2212" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C2212" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2212" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2212" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2213" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2213" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2213" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2213" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2213" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2214" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2214" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2214" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2214" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2214" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2215" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2215" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2215" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2215" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2215" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2216" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2216" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2216" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2216" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2216" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2217" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2217" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2217" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2217" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2217" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2218" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2218" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C2218" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2218" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2218" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2219" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C2219" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2219" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2219" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2220" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2220" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2220" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2220" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2220" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2221" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2221" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2221" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2221" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2221" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2222" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2222" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C2222" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2222" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2222" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2223" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2223" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2223" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2223" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2223" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2224" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2224" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2224" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2224" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2224" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2225" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2225" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C2225" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2225" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2225" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2226" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2226" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2226" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2226" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2226" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2227" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2227" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2227" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2227" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2227" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2228" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2228" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2228" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2228" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2228" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2229" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2229" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2229" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2229" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2229" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2230" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2230" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2230" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2230" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2230" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2231" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2231" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2231" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2231" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2231" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2232" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2232" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2232" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2232" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2232" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2233" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2233" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2233" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2233" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2233" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2234" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2234" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2234" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2234" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2234" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2235" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2235" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2235" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2235" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2235" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2236" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2236" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2236" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2236" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2236" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2237" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2237" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2237" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2237" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2237" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2238" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2238" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2238" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2238" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2238" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2239" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2239" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2239" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2239" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2239" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2240" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2240" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2240" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2240" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2240" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2241" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2241" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2241" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2241" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2241" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2242" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2242" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2242" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2242" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2242" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2243" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2243" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2243" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2243" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2243" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2244" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2244" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2244" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2244" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2244" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2245" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2245" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2245" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2245" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2245" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2246" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2246" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2246" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2246" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2246" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2247" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2247" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2247" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2247" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2247" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2248" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2248" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2248" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2248" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2248" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2249" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2249" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2249" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2249" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2249" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2250" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2250" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="C2250" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2250" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2250" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2251" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2251" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C2251" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2251" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2251" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2252" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2252" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2252" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2252" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2252" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2253" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2253" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2253" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2253" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2253" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2254" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2254" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2254" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2254" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2254" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2255" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2255" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2255" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2255" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2255" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2256" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2256" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2256" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2256" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2256" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2257" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2257" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2257" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2257" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2257" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2258" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2258" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2258" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2258" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2258" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2259" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2259" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2259" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2259" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2259" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2260" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2260" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2260" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2260" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2260" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2261" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2261" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C2261" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2261" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2261" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2262" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2262" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C2262" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2262" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2262" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2263" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2263" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2263" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2263" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2263" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2264" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2264" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2264" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2264" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2264" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2265" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2265" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2265" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2265" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2265" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2266" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2266" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2266" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2266" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2266" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2267" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2267" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2267" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2267" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2267" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2268" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2268" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2268" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2268" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2268" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2269" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2269" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2269" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2269" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2269" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2270" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C2270" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2270" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2270" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2271" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2271" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2271" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2271" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2271" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2272" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2272" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2272" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2272" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2272" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2273" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2273" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2273" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2273" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2273" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2274" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2274" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C2274" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2274" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2274" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2275" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2275" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C2275" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2275" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2275" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2276" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2276" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2276" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2276" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2276" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2277" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2277" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2277" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2277" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2277" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2278" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2278" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2278" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2278" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2278" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2279" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2279" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2279" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2279" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2279" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2280" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2280" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C2280" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2280" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2280" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2281" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2281" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2281" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2281" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2281" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2282" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2282" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2282" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2282" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2282" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2283" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2283" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2283" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2283" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2283" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2284" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2284" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2284" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2284" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2284" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2285" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2285" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2285" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2285" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2285" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2286" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2286" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2286" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2286" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2286" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2287" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2287" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2287" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2287" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2287" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2288" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2288" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C2288" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2288" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2288" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2289" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2289" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2289" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2289" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2289" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2290" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2290" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C2290" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2290" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2290" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2291" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2291" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2291" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2291" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2291" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2292" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2292" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2292" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2292" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2292" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2293" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2293" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2293" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2293" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2293" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2294" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2294" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2294" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2294" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2294" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2295" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B2295" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2295" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2295" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2295" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2296" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2296" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2296" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2296" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2296" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2297" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2297" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2297" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2297" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2297" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2298" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2298" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2298" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2298" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2298" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2299" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2299" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2299" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2299" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2299" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2300" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2300" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2300" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2300" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2300" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2301" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2301" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2301" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2301" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2301" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2302" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C2302" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2302" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2302" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2303" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2303" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2303" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2303" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2303" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2304" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2304" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C2304" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2304" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2304" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2305" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2305" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C2305" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2305" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2305" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2306" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2306" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2306" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2306" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2306" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2307" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2307" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2307" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2307" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2307" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2308" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2308" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2308" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2308" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2308" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2309" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2309" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2309" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2309" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2309" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2310" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2310" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2310" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2310" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2310" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2311" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2311" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2311" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2311" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2311" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2312" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2312" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2312" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2312" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2312" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2313" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2313" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2313" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2313" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2313" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2314" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2314" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2314" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2314" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2314" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2315" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2315" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2315" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2315" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2315" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2316" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2316" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2316" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2316" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2316" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2317" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2317" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2317" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2317" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2317" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2318" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2318" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C2318" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2318" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2318" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2319" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2319" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2319" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2319" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2319" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2320" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2320" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2320" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2320" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2320" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2321" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2321" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2321" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2321" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2321" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2322" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2322" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2322" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2322" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2322" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2323" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2323" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2323" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2323" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2323" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2324" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2324" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2324" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2324" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2324" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2325" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2325" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C2325" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2325" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2325" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2326" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2326" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C2326" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2326" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2326" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2327" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2327" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2327" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2327" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2327" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2328" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2328" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2328" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2328" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2328" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2329" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2329" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2329" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2329" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2329" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2330" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2330" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2330" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2330" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2330" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2331" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2331" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2331" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2331" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2331" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2332" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2332" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C2332" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2332" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2332" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2333" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2333" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2333" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2333" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2333" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2334" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2334" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2334" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2334" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2334" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2335" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2335" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2335" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2335" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2335" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2336" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2336" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2336" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2336" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2336" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2337" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2337" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2337" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2337" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2337" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2338" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2338" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2338" s="2" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D2338" s="2">
+        <v>61</v>
+      </c>
+      <c r="E2338" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2339" s="2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B2339" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2339" s="2" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D2339" s="2">
+        <v>61</v>
+      </c>
+      <c r="E2339" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2340" s="2" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B2340" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2340" s="2" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D2340" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2340" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2341" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2341" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2341" s="2" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D2341" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2341" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2342" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2342" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2342" s="2" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D2342" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2342" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2343" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B2343" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2343" s="2" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D2343" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2343" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2344" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B2344" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2344" s="2" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D2344" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2344" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2345" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B2345" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2345" s="2" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D2345" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2345" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2346" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B2346" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2346" s="2" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D2346" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2346" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2347" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B2347" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2347" s="2" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D2347" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2347" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2348" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B2348" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2348" s="2" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D2348" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2348" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2349" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B2349" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2349" s="2" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D2349" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2349" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2350" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B2350" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2350" s="2" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D2350" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2350" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2351" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B2351" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2351" s="2" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D2351" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2351" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2352" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B2352" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2352" s="2" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D2352" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2352" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2353" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B2353" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2353" s="2" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D2353" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2353" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2354" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B2354" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2354" s="2" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D2354" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2354" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2355" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B2355" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2355" s="2" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D2355" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2355" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2356" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B2356" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C2356" s="2" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D2356" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2356" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2357" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B2357" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2357" s="2" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D2357" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2357" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2358" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2358" s="2" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D2358" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2358" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2359" s="2" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C2359" s="2" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D2359" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2359" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2360" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2360" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2360" s="2" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D2360" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2360" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2361" s="2" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C2361" s="2" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D2361" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2361" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2362" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2362" s="2" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D2362" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2362" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2363" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2363" s="2" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D2363" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2363" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2364" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2364" s="2" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D2364" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2364" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2365" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2365" s="2" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D2365" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2365" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2366" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="B2366" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2366" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D2366" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2366" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E2170" xr:uid="{52BD44F0-B458-45CA-A7A3-71AE274EE64B}"/>
+  <autoFilter ref="A1:E2366" xr:uid="{52BD44F0-B458-45CA-A7A3-71AE274EE64B}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C1252">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
